--- a/data/trans_orig/P13A_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8646</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4121</v>
+        <v>4365</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16140</v>
+        <v>16219</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01257648801961455</v>
+        <v>0.01257648801961454</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005994390032439896</v>
+        <v>0.00634989234510074</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02347860172803334</v>
+        <v>0.02359290164935367</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -762,19 +762,19 @@
         <v>25214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17717</v>
+        <v>17949</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37757</v>
+        <v>37753</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03446803194797676</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02421991774973692</v>
+        <v>0.02453600333052818</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0516141253214456</v>
+        <v>0.05160973289395221</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -783,19 +783,19 @@
         <v>33860</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24786</v>
+        <v>24279</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47038</v>
+        <v>46492</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02386221320995067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01746750242691242</v>
+        <v>0.01711042631727483</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03314947939314378</v>
+        <v>0.03276445316457721</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>678802</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>671308</v>
+        <v>671229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>683327</v>
+        <v>683083</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9874235119803854</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9765213982719657</v>
+        <v>0.9764070983506462</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.99400560996756</v>
+        <v>0.9936501076548993</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1196</v>
@@ -833,19 +833,19 @@
         <v>706304</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>693761</v>
+        <v>693765</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>713801</v>
+        <v>713569</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9655319680520232</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9483858746785541</v>
+        <v>0.9483902671060478</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9757800822502631</v>
+        <v>0.975463996669472</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1912</v>
@@ -854,19 +854,19 @@
         <v>1385106</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1371928</v>
+        <v>1372474</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1394180</v>
+        <v>1394687</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9761377867900493</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9668505206068562</v>
+        <v>0.9672355468354225</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9825324975730877</v>
+        <v>0.982889573682725</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>14923</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7842</v>
+        <v>8053</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25305</v>
+        <v>25123</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01428131346160519</v>
+        <v>0.0142813134616052</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007504453903630673</v>
+        <v>0.007706458669202463</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02421742569085822</v>
+        <v>0.02404265815067941</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -979,19 +979,19 @@
         <v>49080</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38047</v>
+        <v>37241</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63365</v>
+        <v>65442</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04588262614645157</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0355684299076137</v>
+        <v>0.03481458380946395</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05923686645542355</v>
+        <v>0.06117859434022285</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -1000,19 +1000,19 @@
         <v>64003</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50149</v>
+        <v>51702</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81155</v>
+        <v>82167</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03026701679243015</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02371559570433488</v>
+        <v>0.02445005257852149</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03837816262903111</v>
+        <v>0.03885664576512823</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1029998</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1019616</v>
+        <v>1019798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1037079</v>
+        <v>1036868</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9857186865383948</v>
+        <v>0.9857186865383949</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9757825743091423</v>
+        <v>0.9759573418493207</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9924955460963695</v>
+        <v>0.9922935413307977</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1446</v>
@@ -1050,19 +1050,19 @@
         <v>1020606</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1006321</v>
+        <v>1004244</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1031639</v>
+        <v>1032445</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9541173738535483</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9407631335445764</v>
+        <v>0.9388214056597772</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9644315700923861</v>
+        <v>0.9651854161905362</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2392</v>
@@ -1071,19 +1071,19 @@
         <v>2050605</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2033453</v>
+        <v>2032441</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2064459</v>
+        <v>2062906</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9697329832075698</v>
+        <v>0.9697329832075697</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9616218373709685</v>
+        <v>0.9611433542348718</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9762844042956648</v>
+        <v>0.9755499474214785</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>10392</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5226</v>
+        <v>5413</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18773</v>
+        <v>18799</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01297125865740988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0065230425402643</v>
+        <v>0.006756979627395913</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02343224406230266</v>
+        <v>0.02346408977806591</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1196,19 +1196,19 @@
         <v>35968</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27046</v>
+        <v>27400</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46487</v>
+        <v>45883</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04453159128559689</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03348513414734309</v>
+        <v>0.03392403386763002</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05755556972785811</v>
+        <v>0.05680776328818236</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>62</v>
@@ -1217,19 +1217,19 @@
         <v>46360</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35261</v>
+        <v>35477</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60328</v>
+        <v>59266</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0288155053705184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02191653015522595</v>
+        <v>0.02205090914921515</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03749716421444791</v>
+        <v>0.03683739974984175</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>790771</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>782390</v>
+        <v>782364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>795937</v>
+        <v>795750</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.98702874134259</v>
+        <v>0.9870287413425901</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9765677559376973</v>
+        <v>0.9765359102219345</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9934769574597356</v>
+        <v>0.9932430203726041</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>991</v>
@@ -1267,19 +1267,19 @@
         <v>771728</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>761209</v>
+        <v>761813</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>780650</v>
+        <v>780296</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9554684087144031</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.942444430272142</v>
+        <v>0.9431922367118177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9665148658526569</v>
+        <v>0.96607596613237</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1655</v>
@@ -1288,19 +1288,19 @@
         <v>1562499</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1548531</v>
+        <v>1549593</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1573598</v>
+        <v>1573382</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9711844946294815</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9625028357855521</v>
+        <v>0.9631626002501582</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9780834698447742</v>
+        <v>0.977949090850785</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>5948</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2554</v>
+        <v>2625</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11434</v>
+        <v>11256</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.006035139025618542</v>
+        <v>0.006035139025618544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002591404986606701</v>
+        <v>0.002663199373309944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01160222485329079</v>
+        <v>0.0114215846942794</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1413,19 +1413,19 @@
         <v>44819</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34202</v>
+        <v>34008</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58007</v>
+        <v>57476</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.040442294334801</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03086171535341911</v>
+        <v>0.03068682775455915</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05234252105422086</v>
+        <v>0.05186338863942317</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -1434,19 +1434,19 @@
         <v>50766</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38995</v>
+        <v>39251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63822</v>
+        <v>64834</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02424720288050091</v>
+        <v>0.0242472028805009</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01862512307830229</v>
+        <v>0.01874707327952002</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03048273271081572</v>
+        <v>0.03096621185414174</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>979535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>974049</v>
+        <v>974227</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>982929</v>
+        <v>982858</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9939648609743814</v>
+        <v>0.9939648609743813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9883977751467091</v>
+        <v>0.9885784153057204</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9974085950133932</v>
+        <v>0.9973368006266901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1488</v>
@@ -1484,19 +1484,19 @@
         <v>1063399</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1050211</v>
+        <v>1050742</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1074016</v>
+        <v>1074210</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.959557705665199</v>
+        <v>0.9595577056651988</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.947657478945779</v>
+        <v>0.9481366113605768</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9691382846465807</v>
+        <v>0.9693131722454406</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2481</v>
@@ -1505,19 +1505,19 @@
         <v>2042935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2029879</v>
+        <v>2028867</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2054706</v>
+        <v>2054450</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9757527971194991</v>
+        <v>0.975752797119499</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9695172672891843</v>
+        <v>0.9690337881458577</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9813748769216979</v>
+        <v>0.9812529267204799</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>39908</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29053</v>
+        <v>29207</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54103</v>
+        <v>54714</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01134071447310502</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00825596437309384</v>
+        <v>0.008299648256392896</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01537438538715443</v>
+        <v>0.01554821243917731</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>219</v>
@@ -1630,19 +1630,19 @@
         <v>155081</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134242</v>
+        <v>135544</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>181174</v>
+        <v>177572</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04172072495503839</v>
+        <v>0.04172072495503838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03611444804591855</v>
+        <v>0.03646491850232821</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04874032050514027</v>
+        <v>0.0477714198252031</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>261</v>
@@ -1651,19 +1651,19 @@
         <v>194989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>172137</v>
+        <v>170435</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>224117</v>
+        <v>222741</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0269465743780494</v>
+        <v>0.02694657437804941</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02378849893491861</v>
+        <v>0.02355325836603392</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0309719647443804</v>
+        <v>0.03078181500823735</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3479108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3464913</v>
+        <v>3464302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3489963</v>
+        <v>3489809</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.988659285526895</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9846256146128457</v>
+        <v>0.9844517875608226</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9917440356269063</v>
+        <v>0.9917003517436069</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5121</v>
@@ -1701,19 +1701,19 @@
         <v>3562037</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3535944</v>
+        <v>3539546</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3582876</v>
+        <v>3581574</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9582792750449615</v>
+        <v>0.9582792750449616</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9512596794948598</v>
+        <v>0.9522285801747965</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9638855519540815</v>
+        <v>0.9635350814976719</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8440</v>
@@ -1722,19 +1722,19 @@
         <v>7041145</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7012017</v>
+        <v>7013393</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7063997</v>
+        <v>7065699</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9730534256219505</v>
+        <v>0.9730534256219506</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9690280352556194</v>
+        <v>0.9692181849917625</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9762115010650814</v>
+        <v>0.9764467416339656</v>
       </c>
     </row>
     <row r="18">
